--- a/game/data/excel/result_info.xlsx
+++ b/game/data/excel/result_info.xlsx
@@ -80,163 +80,164 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>一周目三关卡结尾对话</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一周目四关卡结尾对话</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一周目五关卡结尾对话</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>["红花","蓝花","黄花"]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>["花照片","结婚照"]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>["钻戒","草戒指"]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>["负面情绪","负面情绪","负面情绪","负面情绪"]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>["干燥剂","红花","蓝花","黄花"]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>["结婚照"]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>["奇怪的门"]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>String</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-3</t>
+  </si>
+  <si>
+    <t>1-4</t>
+  </si>
+  <si>
+    <t>1-5</t>
+  </si>
+  <si>
+    <t>2-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2-2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dialogue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>description</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Array</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>level</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>priority</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>state</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>["奖状","钢笔","纸","通知书"]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[[0,"一周目三关卡结尾对话"]]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[[0,"一周目四关卡结尾对话"]]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[[0,"一周目五关卡结尾对话"]]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二周目一关卡结尾对话</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[[0,"二周目一关卡结尾对话"]]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二周目二关卡结尾对话</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[[0,"二周目二关卡结尾对话"]]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三周目一关卡结尾对话</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[[0,"三周目一关卡结尾对话"]]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[[0,"一周目一关卡结尾对话"]]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[[0,"一周目二关卡结尾对话"]]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一周目二关卡结尾对话</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>一周目一关卡结尾对话</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>一周目二关卡结尾对话</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>一周目三关卡结尾对话</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>一周目四关卡结尾对话</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>一周目五关卡结尾对话</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>["红花","蓝花","黄花"]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>["花照片","结婚照"]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>["钻戒","草戒指"]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>["负面情绪","负面情绪","负面情绪","负面情绪"]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>["干燥剂","红花","蓝花","黄花"]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>["结婚照"]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>["奇怪的门"]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>String</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1-1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1-2</t>
-  </si>
-  <si>
-    <t>1-3</t>
-  </si>
-  <si>
-    <t>1-4</t>
-  </si>
-  <si>
-    <t>1-5</t>
-  </si>
-  <si>
-    <t>2-1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2-2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3-1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dialogue</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>description</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Array</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>level</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>priority</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>state</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>["奖状","钢笔","纸","通知书"]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[[0,"一周目一关卡结尾对话"]]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[[0,"一周目二关卡结尾对话"]]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[[0,"一周目三关卡结尾对话"]]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[[0,"一周目四关卡结尾对话"]]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[[0,"一周目五关卡结尾对话"]]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>二周目一关卡结尾对话</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[[0,"二周目一关卡结尾对话"]]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>二周目二关卡结尾对话</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[[0,"二周目二关卡结尾对话"]]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>三周目一关卡结尾对话</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[[0,"三周目一关卡结尾对话"]]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -589,8 +590,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F212"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -599,7 +600,7 @@
     <col min="3" max="3" width="33.1640625" customWidth="1"/>
     <col min="4" max="4" width="26.25" customWidth="1"/>
     <col min="5" max="5" width="13.08203125" customWidth="1"/>
-    <col min="6" max="6" width="34.83203125" customWidth="1"/>
+    <col min="6" max="6" width="9.5" customWidth="1"/>
     <col min="7" max="7" width="58" customWidth="1"/>
     <col min="8" max="8" width="18.33203125" customWidth="1"/>
     <col min="10" max="10" width="30.33203125" customWidth="1"/>
@@ -607,27 +608,27 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C1" t="s">
         <v>0</v>
       </c>
       <c r="D1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="F1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
@@ -636,27 +637,27 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>32</v>
+        <v>43</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
       </c>
       <c r="D3" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -665,18 +666,18 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" t="s">
-        <v>9</v>
+        <v>42</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>28</v>
       </c>
       <c r="D4" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -687,16 +688,16 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D5" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -707,16 +708,16 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -727,16 +728,16 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -747,16 +748,16 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B8" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="C8" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D8" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -767,16 +768,16 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B9" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C9" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D9" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -787,16 +788,16 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B10" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="C10" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D10" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="E10">
         <v>1</v>
@@ -804,9 +805,6 @@
       <c r="F10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B11" s="2"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B12" s="2"/>

--- a/game/data/excel/result_info.xlsx
+++ b/game/data/excel/result_info.xlsx
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="44">
   <si>
     <t>conditions</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -591,7 +591,7 @@
   <dimension ref="A1:F212"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -743,7 +743,7 @@
         <v>1</v>
       </c>
       <c r="F7">
-        <v>0</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
